--- a/db/uploads/Create-Organization-Template.xlsx
+++ b/db/uploads/Create-Organization-Template.xlsx
@@ -3095,7 +3095,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00000000"/>
+  </numFmts>
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -3113,6 +3116,7 @@
       <u/>
       <color rgb="FF0000FF"/>
     </font>
+    <font/>
     <font>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
@@ -3138,7 +3142,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3156,7 +3160,13 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -11719,10 +11729,10 @@
       <c r="C1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="7" t="s">
         <v>62</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -11751,10 +11761,10 @@
       <c r="C2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="8">
         <v>36.1335939098051</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="7">
         <v>-86.7942003089171</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -11783,10 +11793,10 @@
       <c r="C3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="8">
         <v>36.1530885762301</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="9">
         <v>-86.681015699005</v>
       </c>
       <c r="F3" s="3" t="s">
@@ -11815,10 +11825,10 @@
       <c r="C4" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="8">
         <v>36.1476138237731</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="9">
         <v>-86.6708665038354</v>
       </c>
       <c r="F4" s="4" t="s">
@@ -11887,7 +11897,7 @@
       <c r="J12" s="6"/>
     </row>
     <row r="13">
-      <c r="C13" s="1"/>
+      <c r="C13" s="7"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
@@ -11918,7 +11928,7 @@
       <c r="J17" s="6"/>
     </row>
     <row r="18">
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="7" t="s">
         <v>74</v>
       </c>
       <c r="G18" s="6"/>
@@ -20962,7 +20972,7 @@
       <c r="B3" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>87</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -22731,7 +22741,7 @@
       <c r="B208" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="C208" s="7"/>
+      <c r="C208" s="8"/>
       <c r="D208" s="1" t="s">
         <v>526</v>
       </c>
@@ -22740,7 +22750,7 @@
       <c r="B209" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="D209" s="7" t="s">
+      <c r="D209" s="8" t="s">
         <v>528</v>
       </c>
     </row>
@@ -22748,7 +22758,7 @@
       <c r="B210" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="D210" s="7" t="s">
+      <c r="D210" s="8" t="s">
         <v>530</v>
       </c>
     </row>
@@ -22756,7 +22766,7 @@
       <c r="B211" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="D211" s="7" t="s">
+      <c r="D211" s="8" t="s">
         <v>532</v>
       </c>
     </row>
@@ -22764,7 +22774,7 @@
       <c r="B212" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="D212" s="7" t="s">
+      <c r="D212" s="8" t="s">
         <v>534</v>
       </c>
     </row>
@@ -22772,7 +22782,7 @@
       <c r="B213" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="D213" s="7" t="s">
+      <c r="D213" s="8" t="s">
         <v>536</v>
       </c>
     </row>
@@ -22780,7 +22790,7 @@
       <c r="B214" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="D214" s="7" t="s">
+      <c r="D214" s="8" t="s">
         <v>538</v>
       </c>
     </row>
@@ -22964,7 +22974,7 @@
       <c r="B237" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="D237" s="7" t="s">
+      <c r="D237" s="8" t="s">
         <v>583</v>
       </c>
     </row>
@@ -22972,7 +22982,7 @@
       <c r="B238" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="D238" s="7" t="s">
+      <c r="D238" s="8" t="s">
         <v>585</v>
       </c>
     </row>
@@ -22988,7 +22998,7 @@
       <c r="B240" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="D240" s="7" t="s">
+      <c r="D240" s="8" t="s">
         <v>194</v>
       </c>
     </row>
@@ -23180,7 +23190,7 @@
       <c r="B264" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="D264" s="7" t="s">
+      <c r="D264" s="8" t="s">
         <v>636</v>
       </c>
     </row>
@@ -23188,7 +23198,7 @@
       <c r="B265" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="D265" s="7" t="s">
+      <c r="D265" s="8" t="s">
         <v>638</v>
       </c>
     </row>
@@ -23196,7 +23206,7 @@
       <c r="B266" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="D266" s="7" t="s">
+      <c r="D266" s="8" t="s">
         <v>640</v>
       </c>
     </row>
@@ -23204,7 +23214,7 @@
       <c r="B267" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="D267" s="7" t="s">
+      <c r="D267" s="8" t="s">
         <v>642</v>
       </c>
     </row>
@@ -23212,7 +23222,7 @@
       <c r="B268" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="D268" s="7" t="s">
+      <c r="D268" s="8" t="s">
         <v>644</v>
       </c>
     </row>
@@ -23511,7 +23521,7 @@
       <c r="C305" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="D305" s="7" t="s">
+      <c r="D305" s="8" t="s">
         <v>717</v>
       </c>
     </row>
@@ -23519,7 +23529,7 @@
       <c r="B306" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="D306" s="7" t="s">
+      <c r="D306" s="8" t="s">
         <v>719</v>
       </c>
     </row>
@@ -23527,7 +23537,7 @@
       <c r="B307" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="D307" s="7" t="s">
+      <c r="D307" s="8" t="s">
         <v>721</v>
       </c>
     </row>
@@ -23535,7 +23545,7 @@
       <c r="B308" s="1" t="s">
         <v>722</v>
       </c>
-      <c r="D308" s="7" t="s">
+      <c r="D308" s="8" t="s">
         <v>723</v>
       </c>
     </row>
@@ -23543,7 +23553,7 @@
       <c r="B309" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="D309" s="7" t="s">
+      <c r="D309" s="8" t="s">
         <v>725</v>
       </c>
     </row>
@@ -23551,7 +23561,7 @@
       <c r="B310" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="D310" s="7" t="s">
+      <c r="D310" s="8" t="s">
         <v>727</v>
       </c>
     </row>
@@ -23559,7 +23569,7 @@
       <c r="B311" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="D311" s="7" t="s">
+      <c r="D311" s="8" t="s">
         <v>729</v>
       </c>
     </row>
@@ -23567,7 +23577,7 @@
       <c r="B312" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="D312" s="7" t="s">
+      <c r="D312" s="8" t="s">
         <v>250</v>
       </c>
     </row>
@@ -23575,7 +23585,7 @@
       <c r="B313" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="D313" s="7" t="s">
+      <c r="D313" s="8" t="s">
         <v>252</v>
       </c>
     </row>
@@ -23583,7 +23593,7 @@
       <c r="B314" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="D314" s="7" t="s">
+      <c r="D314" s="8" t="s">
         <v>254</v>
       </c>
     </row>
@@ -23591,7 +23601,7 @@
       <c r="B315" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="D315" s="7" t="s">
+      <c r="D315" s="8" t="s">
         <v>734</v>
       </c>
     </row>
@@ -23599,7 +23609,7 @@
       <c r="B316" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="D316" s="7" t="s">
+      <c r="D316" s="8" t="s">
         <v>736</v>
       </c>
     </row>
@@ -23607,7 +23617,7 @@
       <c r="B317" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="D317" s="7" t="s">
+      <c r="D317" s="8" t="s">
         <v>738</v>
       </c>
     </row>
@@ -23759,7 +23769,7 @@
       <c r="B336" s="1" t="s">
         <v>775</v>
       </c>
-      <c r="D336" s="7" t="s">
+      <c r="D336" s="8" t="s">
         <v>776</v>
       </c>
     </row>
@@ -23767,7 +23777,7 @@
       <c r="B337" s="1" t="s">
         <v>777</v>
       </c>
-      <c r="D337" s="7" t="s">
+      <c r="D337" s="8" t="s">
         <v>778</v>
       </c>
     </row>
@@ -23775,7 +23785,7 @@
       <c r="B338" s="1" t="s">
         <v>779</v>
       </c>
-      <c r="D338" s="7" t="s">
+      <c r="D338" s="8" t="s">
         <v>780</v>
       </c>
     </row>
@@ -23783,7 +23793,7 @@
       <c r="B339" s="1" t="s">
         <v>781</v>
       </c>
-      <c r="D339" s="7" t="s">
+      <c r="D339" s="8" t="s">
         <v>782</v>
       </c>
     </row>
@@ -23887,7 +23897,7 @@
       <c r="B352" s="1" t="s">
         <v>807</v>
       </c>
-      <c r="D352" s="7" t="s">
+      <c r="D352" s="8" t="s">
         <v>808</v>
       </c>
     </row>
@@ -23895,7 +23905,7 @@
       <c r="B353" s="1" t="s">
         <v>809</v>
       </c>
-      <c r="D353" s="7" t="s">
+      <c r="D353" s="8" t="s">
         <v>561</v>
       </c>
     </row>
@@ -23903,7 +23913,7 @@
       <c r="B354" s="1" t="s">
         <v>810</v>
       </c>
-      <c r="D354" s="7" t="s">
+      <c r="D354" s="8" t="s">
         <v>563</v>
       </c>
     </row>
@@ -23911,7 +23921,7 @@
       <c r="B355" s="1" t="s">
         <v>811</v>
       </c>
-      <c r="D355" s="7" t="s">
+      <c r="D355" s="8" t="s">
         <v>565</v>
       </c>
     </row>
@@ -23919,7 +23929,7 @@
       <c r="B356" s="1" t="s">
         <v>812</v>
       </c>
-      <c r="D356" s="7" t="s">
+      <c r="D356" s="8" t="s">
         <v>813</v>
       </c>
     </row>
@@ -23927,7 +23937,7 @@
       <c r="B357" s="1" t="s">
         <v>814</v>
       </c>
-      <c r="D357" s="7" t="s">
+      <c r="D357" s="8" t="s">
         <v>815</v>
       </c>
     </row>

--- a/db/uploads/Create-Organization-Template.xlsx
+++ b/db/uploads/Create-Organization-Template.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="1024">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="1041">
   <si>
     <t>id</t>
   </si>
@@ -79,10 +79,10 @@
     <t>blog</t>
   </si>
   <si>
-    <t>Belmont Uni</t>
-  </si>
-  <si>
-    <t>1611</t>
+    <t>Belmont University III</t>
+  </si>
+  <si>
+    <t>162816</t>
   </si>
   <si>
     <t>A02</t>
@@ -169,6 +169,48 @@
     <t>blog.com/handson</t>
   </si>
   <si>
+    <t>Nashville Rescue Mission</t>
+  </si>
+  <si>
+    <t>10123</t>
+  </si>
+  <si>
+    <t>A91</t>
+  </si>
+  <si>
+    <t>Nashville Rescue Mission Statement</t>
+  </si>
+  <si>
+    <t>Nashville Rescue Mission Vision</t>
+  </si>
+  <si>
+    <t>Nashville Rescue Mission Tagline</t>
+  </si>
+  <si>
+    <t>Nashville Rescue Mission Description</t>
+  </si>
+  <si>
+    <t>rescue.com</t>
+  </si>
+  <si>
+    <t>facebook.com/rescue</t>
+  </si>
+  <si>
+    <t>instagram.com/rescue</t>
+  </si>
+  <si>
+    <t>twitter.com/rescue</t>
+  </si>
+  <si>
+    <t>linkedin.com/rescue</t>
+  </si>
+  <si>
+    <t>youtube.com/rescue</t>
+  </si>
+  <si>
+    <t>blog.com/rescue</t>
+  </si>
+  <si>
     <t>organization_id</t>
   </si>
   <si>
@@ -199,6 +241,12 @@
     <t>Multiracial people</t>
   </si>
   <si>
+    <t>Activists</t>
+  </si>
+  <si>
+    <t>Retired people</t>
+  </si>
+  <si>
     <t>address</t>
   </si>
   <si>
@@ -241,6 +289,18 @@
     <t>handson.com/secondary</t>
   </si>
   <si>
+    <t>639 Lafayette St, Nashville, TN 37203, United States</t>
+  </si>
+  <si>
+    <t>rescue.com/mission</t>
+  </si>
+  <si>
+    <t>679 Lafayette St, Nashville, TN 37203, United States</t>
+  </si>
+  <si>
+    <t>rescue.com/mission2</t>
+  </si>
+  <si>
     <t>,</t>
   </si>
   <si>
@@ -259,6 +319,12 @@
     <t>Neighborhood &amp; Block Associations</t>
   </si>
   <si>
+    <t>Humanities Education Program</t>
+  </si>
+  <si>
+    <t>Community Food Systems</t>
+  </si>
+  <si>
     <t>beneficiaries</t>
   </si>
   <si>
@@ -295,9 +361,6 @@
     <t>Individual Liberties</t>
   </si>
   <si>
-    <t>A91</t>
-  </si>
-  <si>
     <t>Justice rights</t>
   </si>
   <si>
@@ -535,9 +598,6 @@
     <t>A6B</t>
   </si>
   <si>
-    <t>Activists</t>
-  </si>
-  <si>
     <t>Animal Training</t>
   </si>
   <si>
@@ -565,9 +625,6 @@
     <t>Emergency responders</t>
   </si>
   <si>
-    <t>Humanities Education Program</t>
-  </si>
-  <si>
     <t>A50</t>
   </si>
   <si>
@@ -589,9 +646,6 @@
     <t>A52</t>
   </si>
   <si>
-    <t>Retired people</t>
-  </si>
-  <si>
     <t>Art Services</t>
   </si>
   <si>
@@ -1334,9 +1388,6 @@
   </si>
   <si>
     <t>E43</t>
-  </si>
-  <si>
-    <t>Community Food Systems</t>
   </si>
   <si>
     <t>E41</t>
@@ -3098,7 +3149,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000000"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -3116,7 +3167,6 @@
       <u/>
       <color rgb="FF0000FF"/>
     </font>
-    <font/>
     <font>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
@@ -3160,13 +3210,13 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -3572,9 +3622,54 @@
       </c>
     </row>
     <row r="4">
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
-      <c r="N4" s="6"/>
+      <c r="A4" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="5">
       <c r="C5" s="5"/>
@@ -8580,8 +8675,15 @@
     <hyperlink r:id="rId12" ref="R3"/>
     <hyperlink r:id="rId13" ref="S3"/>
     <hyperlink r:id="rId14" ref="T3"/>
+    <hyperlink r:id="rId15" ref="M4"/>
+    <hyperlink r:id="rId16" ref="O4"/>
+    <hyperlink r:id="rId17" ref="P4"/>
+    <hyperlink r:id="rId18" ref="Q4"/>
+    <hyperlink r:id="rId19" ref="R4"/>
+    <hyperlink r:id="rId20" ref="S4"/>
+    <hyperlink r:id="rId21" ref="T4"/>
   </hyperlinks>
-  <drawing r:id="rId15"/>
+  <drawing r:id="rId22"/>
 </worksheet>
 </file>
 
@@ -8600,7 +8702,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -8611,7 +8713,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3">
@@ -8619,7 +8721,7 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
@@ -8627,7 +8729,7 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
@@ -8635,7 +8737,7 @@
         <v>2.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6">
@@ -8643,7 +8745,31 @@
         <v>2.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>55</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -8667,7 +8793,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -8678,7 +8804,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3">
@@ -8686,7 +8812,7 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4">
@@ -8694,7 +8820,7 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
@@ -8702,7 +8828,7 @@
         <v>2.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
@@ -8710,17 +8836,32 @@
         <v>2.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="6"/>
+      <c r="A7" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="8">
-      <c r="B8" s="6"/>
+      <c r="A8" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="9">
-      <c r="B9" s="6"/>
+      <c r="A9" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="10">
       <c r="B10" s="6"/>
@@ -11724,31 +11865,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>62</v>
+        <v>76</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2">
@@ -11759,28 +11900,28 @@
         <v>1.0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" s="8">
+        <v>83</v>
+      </c>
+      <c r="D2" s="7">
         <v>36.1335939098051</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="1">
         <v>-86.7942003089171</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>27</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3">
@@ -11791,28 +11932,28 @@
         <v>2.0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" s="8">
+        <v>86</v>
+      </c>
+      <c r="D3" s="7">
         <v>36.1530885762301</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="8">
         <v>-86.681015699005</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4">
@@ -11823,42 +11964,93 @@
         <v>2.0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" s="8">
+        <v>88</v>
+      </c>
+      <c r="D4" s="7">
         <v>36.1476138237731</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="8">
         <v>-86.6708665038354</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5">
-      <c r="E5" s="1"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
+      <c r="A5" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="9">
+        <v>36.152792902512</v>
+      </c>
+      <c r="E5" s="7">
+        <v>-86.777443024241</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="6">
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
+      <c r="A6" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="7">
+        <v>36.1536692344471</v>
+      </c>
+      <c r="E6" s="9">
+        <v>-86.7776630016308</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="7">
       <c r="G7" s="6"/>
@@ -11897,7 +12089,7 @@
       <c r="J12" s="6"/>
     </row>
     <row r="13">
-      <c r="C13" s="7"/>
+      <c r="C13" s="1"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
@@ -11928,8 +12120,8 @@
       <c r="J17" s="6"/>
     </row>
     <row r="18">
-      <c r="C18" s="7" t="s">
-        <v>74</v>
+      <c r="C18" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
@@ -17838,8 +18030,10 @@
     <hyperlink r:id="rId1" ref="F2"/>
     <hyperlink r:id="rId2" ref="F3"/>
     <hyperlink r:id="rId3" ref="F4"/>
+    <hyperlink r:id="rId4" ref="F5"/>
+    <hyperlink r:id="rId5" ref="F6"/>
   </hyperlinks>
-  <drawing r:id="rId4"/>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -17858,7 +18052,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -17869,7 +18063,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3">
@@ -17877,7 +18071,7 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4">
@@ -17885,7 +18079,7 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5">
@@ -17893,7 +18087,7 @@
         <v>2.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6">
@@ -17901,17 +18095,32 @@
         <v>3.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="6"/>
+      <c r="A7" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="8">
-      <c r="B8" s="6"/>
+      <c r="A8" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="9">
-      <c r="B9" s="6"/>
+      <c r="A9" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="10">
       <c r="B10" s="6"/>
@@ -20908,7 +21117,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -20939,30 +21148,30 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="3">
@@ -20970,16 +21179,16 @@
         <v>43</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>87</v>
+        <v>108</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>109</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4">
@@ -20987,24 +21196,24 @@
         <v>28</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="1" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6">
@@ -21012,32 +21221,32 @@
         <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="1" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="1" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9">
@@ -21045,3924 +21254,3924 @@
         <v>37</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="1" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" s="1" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="1" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" s="1" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="1" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" s="1" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="1" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" s="1" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" s="1" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" s="1" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20">
       <c r="B20" s="1" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" s="1" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22">
       <c r="B22" s="1" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" s="1" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" s="1" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" s="1" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" s="1" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" s="1" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
     </row>
     <row r="28">
       <c r="B28" s="1" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" s="1" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
     </row>
     <row r="30">
       <c r="B30" s="1" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
     </row>
     <row r="31">
       <c r="B31" s="1" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
     </row>
     <row r="32">
       <c r="B32" s="1" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
     </row>
     <row r="33">
       <c r="B33" s="1" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>172</v>
+        <v>74</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
     </row>
     <row r="34">
       <c r="B34" s="1" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
     </row>
     <row r="35">
       <c r="B35" s="1" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
     </row>
     <row r="36">
       <c r="B36" s="1" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>182</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37">
       <c r="B37" s="1" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
     </row>
     <row r="38">
       <c r="B38" s="1" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
     </row>
     <row r="39">
       <c r="B39" s="1" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>190</v>
+        <v>75</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
     </row>
     <row r="40">
       <c r="B40" s="1" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
     </row>
     <row r="41">
       <c r="B41" s="1" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
     </row>
     <row r="42">
       <c r="B42" s="1" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
     </row>
     <row r="43">
       <c r="B43" s="1" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
     </row>
     <row r="44">
       <c r="B44" s="1" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45">
       <c r="B45" s="1" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46">
       <c r="B46" s="1" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
     </row>
     <row r="47">
       <c r="B47" s="1" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
     </row>
     <row r="48">
       <c r="B48" s="1" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
     </row>
     <row r="49">
       <c r="B49" s="1" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
     </row>
     <row r="50">
       <c r="B50" s="1" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
     </row>
     <row r="51">
       <c r="B51" s="1" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
     </row>
     <row r="52">
       <c r="B52" s="1" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
     </row>
     <row r="53">
       <c r="B53" s="1" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
     </row>
     <row r="54">
       <c r="B54" s="1" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
     </row>
     <row r="55">
       <c r="B55" s="1" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
     </row>
     <row r="56">
       <c r="B56" s="1" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
     </row>
     <row r="57">
       <c r="B57" s="1" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
     </row>
     <row r="58">
       <c r="B58" s="1" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
     </row>
     <row r="59">
       <c r="B59" s="1" t="s">
-        <v>231</v>
+        <v>249</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>232</v>
+        <v>250</v>
       </c>
     </row>
     <row r="60">
       <c r="B60" s="1" t="s">
-        <v>233</v>
+        <v>251</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>234</v>
+        <v>252</v>
       </c>
     </row>
     <row r="61">
       <c r="B61" s="1" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
     </row>
     <row r="62">
       <c r="B62" s="1" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
     </row>
     <row r="63">
       <c r="B63" s="1" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
     </row>
     <row r="64">
       <c r="B64" s="1" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>242</v>
+        <v>260</v>
       </c>
     </row>
     <row r="65">
       <c r="B65" s="1" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
     </row>
     <row r="66">
       <c r="B66" s="1" t="s">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
     </row>
     <row r="67">
       <c r="B67" s="1" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>248</v>
+        <v>266</v>
       </c>
     </row>
     <row r="68">
       <c r="B68" s="1" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
     </row>
     <row r="69">
       <c r="B69" s="1" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
     </row>
     <row r="70">
       <c r="B70" s="1" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
     </row>
     <row r="71">
       <c r="B71" s="1" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
     </row>
     <row r="72">
       <c r="B72" s="1" t="s">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
     </row>
     <row r="73">
       <c r="B73" s="1" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
     </row>
     <row r="74">
       <c r="B74" s="1" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>262</v>
+        <v>280</v>
       </c>
     </row>
     <row r="75">
       <c r="B75" s="1" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>264</v>
+        <v>282</v>
       </c>
     </row>
     <row r="76">
       <c r="B76" s="1" t="s">
-        <v>265</v>
+        <v>283</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>266</v>
+        <v>284</v>
       </c>
     </row>
     <row r="77">
       <c r="B77" s="1" t="s">
-        <v>267</v>
+        <v>285</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
     </row>
     <row r="78">
       <c r="B78" s="1" t="s">
-        <v>269</v>
+        <v>287</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>270</v>
+        <v>288</v>
       </c>
     </row>
     <row r="79">
       <c r="B79" s="1" t="s">
-        <v>271</v>
+        <v>289</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>272</v>
+        <v>290</v>
       </c>
     </row>
     <row r="80">
       <c r="B80" s="1" t="s">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
     </row>
     <row r="81">
       <c r="B81" s="1" t="s">
-        <v>275</v>
+        <v>293</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>276</v>
+        <v>294</v>
       </c>
     </row>
     <row r="82">
       <c r="B82" s="1" t="s">
-        <v>277</v>
+        <v>295</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>278</v>
+        <v>296</v>
       </c>
     </row>
     <row r="83">
       <c r="B83" s="1" t="s">
-        <v>279</v>
+        <v>297</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>280</v>
+        <v>298</v>
       </c>
     </row>
     <row r="84">
       <c r="B84" s="1" t="s">
-        <v>281</v>
+        <v>299</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>282</v>
+        <v>300</v>
       </c>
     </row>
     <row r="85">
       <c r="B85" s="1" t="s">
-        <v>283</v>
+        <v>301</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>284</v>
+        <v>302</v>
       </c>
     </row>
     <row r="86">
       <c r="B86" s="1" t="s">
-        <v>285</v>
+        <v>303</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>286</v>
+        <v>304</v>
       </c>
     </row>
     <row r="87">
       <c r="B87" s="1" t="s">
-        <v>287</v>
+        <v>305</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>288</v>
+        <v>306</v>
       </c>
     </row>
     <row r="88">
       <c r="B88" s="1" t="s">
-        <v>289</v>
+        <v>307</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>290</v>
+        <v>308</v>
       </c>
     </row>
     <row r="89">
       <c r="B89" s="1" t="s">
-        <v>291</v>
+        <v>309</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>292</v>
+        <v>310</v>
       </c>
     </row>
     <row r="90">
       <c r="B90" s="1" t="s">
-        <v>293</v>
+        <v>311</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>294</v>
+        <v>312</v>
       </c>
     </row>
     <row r="91">
       <c r="B91" s="1" t="s">
-        <v>295</v>
+        <v>313</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>296</v>
+        <v>314</v>
       </c>
     </row>
     <row r="92">
       <c r="B92" s="1" t="s">
-        <v>297</v>
+        <v>315</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
     </row>
     <row r="93">
       <c r="B93" s="1" t="s">
-        <v>299</v>
+        <v>317</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>300</v>
+        <v>318</v>
       </c>
     </row>
     <row r="94">
       <c r="B94" s="1" t="s">
-        <v>301</v>
+        <v>319</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>302</v>
+        <v>320</v>
       </c>
     </row>
     <row r="95">
       <c r="B95" s="1" t="s">
-        <v>303</v>
+        <v>321</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>304</v>
+        <v>322</v>
       </c>
     </row>
     <row r="96">
       <c r="B96" s="1" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>306</v>
+        <v>324</v>
       </c>
     </row>
     <row r="97">
       <c r="B97" s="1" t="s">
-        <v>307</v>
+        <v>325</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
     </row>
     <row r="98">
       <c r="B98" s="1" t="s">
-        <v>308</v>
+        <v>326</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>309</v>
+        <v>327</v>
       </c>
     </row>
     <row r="99">
       <c r="B99" s="1" t="s">
-        <v>310</v>
+        <v>328</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>311</v>
+        <v>329</v>
       </c>
     </row>
     <row r="100">
       <c r="B100" s="1" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>313</v>
+        <v>331</v>
       </c>
     </row>
     <row r="101">
       <c r="B101" s="1" t="s">
-        <v>314</v>
+        <v>332</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>315</v>
+        <v>333</v>
       </c>
     </row>
     <row r="102">
       <c r="B102" s="1" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>317</v>
+        <v>335</v>
       </c>
     </row>
     <row r="103">
       <c r="B103" s="1" t="s">
-        <v>318</v>
+        <v>336</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>319</v>
+        <v>337</v>
       </c>
     </row>
     <row r="104">
       <c r="B104" s="1" t="s">
-        <v>320</v>
+        <v>338</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>321</v>
+        <v>339</v>
       </c>
     </row>
     <row r="105">
       <c r="B105" s="1" t="s">
-        <v>322</v>
+        <v>340</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>323</v>
+        <v>341</v>
       </c>
     </row>
     <row r="106">
       <c r="B106" s="1" t="s">
-        <v>324</v>
+        <v>342</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>325</v>
+        <v>343</v>
       </c>
     </row>
     <row r="107">
       <c r="B107" s="1" t="s">
-        <v>326</v>
+        <v>344</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>327</v>
+        <v>345</v>
       </c>
     </row>
     <row r="108">
       <c r="B108" s="1" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>329</v>
+        <v>347</v>
       </c>
     </row>
     <row r="109">
       <c r="B109" s="1" t="s">
-        <v>330</v>
+        <v>348</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>331</v>
+        <v>349</v>
       </c>
     </row>
     <row r="110">
       <c r="B110" s="1" t="s">
-        <v>332</v>
+        <v>350</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>333</v>
+        <v>351</v>
       </c>
     </row>
     <row r="111">
       <c r="B111" s="1" t="s">
-        <v>334</v>
+        <v>352</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>335</v>
+        <v>353</v>
       </c>
     </row>
     <row r="112">
       <c r="B112" s="1" t="s">
-        <v>336</v>
+        <v>354</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
     </row>
     <row r="113">
       <c r="B113" s="1" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>339</v>
+        <v>357</v>
       </c>
     </row>
     <row r="114">
       <c r="B114" s="1" t="s">
-        <v>340</v>
+        <v>358</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>341</v>
+        <v>359</v>
       </c>
     </row>
     <row r="115">
       <c r="B115" s="1" t="s">
-        <v>342</v>
+        <v>360</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>343</v>
+        <v>361</v>
       </c>
     </row>
     <row r="116">
       <c r="B116" s="1" t="s">
-        <v>344</v>
+        <v>362</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>345</v>
+        <v>363</v>
       </c>
     </row>
     <row r="117">
       <c r="B117" s="1" t="s">
-        <v>346</v>
+        <v>364</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>347</v>
+        <v>365</v>
       </c>
     </row>
     <row r="118">
       <c r="B118" s="1" t="s">
-        <v>348</v>
+        <v>366</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>349</v>
+        <v>367</v>
       </c>
     </row>
     <row r="119">
       <c r="B119" s="1" t="s">
-        <v>350</v>
+        <v>368</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
     </row>
     <row r="120">
       <c r="B120" s="1" t="s">
-        <v>352</v>
+        <v>370</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>353</v>
+        <v>371</v>
       </c>
     </row>
     <row r="121">
       <c r="B121" s="1" t="s">
-        <v>354</v>
+        <v>372</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>355</v>
+        <v>373</v>
       </c>
     </row>
     <row r="122">
       <c r="B122" s="1" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>357</v>
+        <v>375</v>
       </c>
     </row>
     <row r="123">
       <c r="B123" s="1" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>359</v>
+        <v>377</v>
       </c>
     </row>
     <row r="124">
       <c r="B124" s="1" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
     </row>
     <row r="125">
       <c r="B125" s="1" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>363</v>
+        <v>381</v>
       </c>
     </row>
     <row r="126">
       <c r="B126" s="1" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
     </row>
     <row r="127">
       <c r="B127" s="1" t="s">
-        <v>366</v>
+        <v>384</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>367</v>
+        <v>385</v>
       </c>
     </row>
     <row r="128">
       <c r="B128" s="1" t="s">
-        <v>368</v>
+        <v>386</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>369</v>
+        <v>387</v>
       </c>
     </row>
     <row r="129">
       <c r="B129" s="1" t="s">
-        <v>370</v>
+        <v>388</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>371</v>
+        <v>389</v>
       </c>
     </row>
     <row r="130">
       <c r="B130" s="1" t="s">
-        <v>372</v>
+        <v>390</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
     </row>
     <row r="131">
       <c r="B131" s="1" t="s">
-        <v>374</v>
+        <v>392</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>375</v>
+        <v>393</v>
       </c>
     </row>
     <row r="132">
       <c r="B132" s="1" t="s">
-        <v>376</v>
+        <v>394</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>377</v>
+        <v>395</v>
       </c>
     </row>
     <row r="133">
       <c r="B133" s="1" t="s">
-        <v>378</v>
+        <v>396</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>379</v>
+        <v>397</v>
       </c>
     </row>
     <row r="134">
       <c r="B134" s="1" t="s">
-        <v>380</v>
+        <v>398</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>381</v>
+        <v>399</v>
       </c>
     </row>
     <row r="135">
       <c r="B135" s="1" t="s">
-        <v>382</v>
+        <v>400</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>321</v>
+        <v>339</v>
       </c>
     </row>
     <row r="136">
       <c r="B136" s="1" t="s">
-        <v>383</v>
+        <v>401</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>384</v>
+        <v>402</v>
       </c>
     </row>
     <row r="137">
       <c r="B137" s="1" t="s">
-        <v>385</v>
+        <v>403</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>386</v>
+        <v>404</v>
       </c>
     </row>
     <row r="138">
       <c r="B138" s="1" t="s">
-        <v>387</v>
+        <v>405</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>388</v>
+        <v>406</v>
       </c>
     </row>
     <row r="139">
       <c r="B139" s="1" t="s">
-        <v>389</v>
+        <v>407</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>390</v>
+        <v>408</v>
       </c>
     </row>
     <row r="140">
       <c r="B140" s="1" t="s">
-        <v>391</v>
+        <v>409</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>392</v>
+        <v>410</v>
       </c>
     </row>
     <row r="141">
       <c r="B141" s="1" t="s">
-        <v>393</v>
+        <v>411</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>394</v>
+        <v>412</v>
       </c>
     </row>
     <row r="142">
       <c r="B142" s="1" t="s">
-        <v>395</v>
+        <v>413</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>396</v>
+        <v>414</v>
       </c>
     </row>
     <row r="143">
       <c r="B143" s="1" t="s">
-        <v>397</v>
+        <v>415</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>398</v>
+        <v>416</v>
       </c>
     </row>
     <row r="144">
       <c r="B144" s="1" t="s">
-        <v>399</v>
+        <v>417</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>400</v>
+        <v>418</v>
       </c>
     </row>
     <row r="145">
       <c r="B145" s="1" t="s">
-        <v>401</v>
+        <v>419</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>402</v>
+        <v>420</v>
       </c>
     </row>
     <row r="146">
       <c r="B146" s="1" t="s">
-        <v>403</v>
+        <v>421</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>404</v>
+        <v>422</v>
       </c>
     </row>
     <row r="147">
       <c r="B147" s="1" t="s">
-        <v>405</v>
+        <v>423</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>406</v>
+        <v>424</v>
       </c>
     </row>
     <row r="148">
       <c r="B148" s="1" t="s">
-        <v>407</v>
+        <v>425</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>408</v>
+        <v>426</v>
       </c>
     </row>
     <row r="149">
       <c r="B149" s="1" t="s">
-        <v>409</v>
+        <v>427</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>410</v>
+        <v>428</v>
       </c>
     </row>
     <row r="150">
       <c r="B150" s="1" t="s">
-        <v>411</v>
+        <v>429</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>363</v>
+        <v>381</v>
       </c>
     </row>
     <row r="151">
       <c r="B151" s="1" t="s">
-        <v>412</v>
+        <v>430</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>413</v>
+        <v>431</v>
       </c>
     </row>
     <row r="152">
       <c r="B152" s="1" t="s">
-        <v>414</v>
+        <v>432</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>415</v>
+        <v>433</v>
       </c>
     </row>
     <row r="153">
       <c r="B153" s="1" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>417</v>
+        <v>435</v>
       </c>
     </row>
     <row r="154">
       <c r="B154" s="1" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>419</v>
+        <v>437</v>
       </c>
     </row>
     <row r="155">
       <c r="B155" s="1" t="s">
-        <v>420</v>
+        <v>438</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>421</v>
+        <v>439</v>
       </c>
     </row>
     <row r="156">
       <c r="B156" s="1" t="s">
-        <v>422</v>
+        <v>440</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>423</v>
+        <v>441</v>
       </c>
     </row>
     <row r="157">
       <c r="B157" s="1" t="s">
-        <v>424</v>
+        <v>442</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>425</v>
+        <v>443</v>
       </c>
     </row>
     <row r="158">
       <c r="B158" s="1" t="s">
-        <v>426</v>
+        <v>444</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
     </row>
     <row r="159">
       <c r="B159" s="1" t="s">
-        <v>428</v>
+        <v>446</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
     </row>
     <row r="160">
       <c r="B160" s="1" t="s">
-        <v>430</v>
+        <v>448</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>431</v>
+        <v>449</v>
       </c>
     </row>
     <row r="161">
       <c r="B161" s="1" t="s">
-        <v>432</v>
+        <v>450</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>433</v>
+        <v>451</v>
       </c>
     </row>
     <row r="162">
       <c r="B162" s="1" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>435</v>
+        <v>453</v>
       </c>
     </row>
     <row r="163">
       <c r="B163" s="1" t="s">
-        <v>436</v>
+        <v>454</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>437</v>
+        <v>455</v>
       </c>
     </row>
     <row r="164">
       <c r="B164" s="1" t="s">
-        <v>438</v>
+        <v>456</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>439</v>
+        <v>101</v>
       </c>
     </row>
     <row r="165">
       <c r="B165" s="1" t="s">
-        <v>440</v>
+        <v>457</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>441</v>
+        <v>458</v>
       </c>
     </row>
     <row r="166">
       <c r="B166" s="1" t="s">
-        <v>442</v>
+        <v>459</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>443</v>
+        <v>460</v>
       </c>
     </row>
     <row r="167">
       <c r="B167" s="1" t="s">
-        <v>444</v>
+        <v>461</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>445</v>
+        <v>462</v>
       </c>
     </row>
     <row r="168">
       <c r="B168" s="1" t="s">
-        <v>446</v>
+        <v>463</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>447</v>
+        <v>464</v>
       </c>
     </row>
     <row r="169">
       <c r="B169" s="1" t="s">
-        <v>448</v>
+        <v>465</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>449</v>
+        <v>466</v>
       </c>
     </row>
     <row r="170">
       <c r="B170" s="1" t="s">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>451</v>
+        <v>468</v>
       </c>
     </row>
     <row r="171">
       <c r="B171" s="1" t="s">
-        <v>452</v>
+        <v>469</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>453</v>
+        <v>470</v>
       </c>
     </row>
     <row r="172">
       <c r="B172" s="1" t="s">
-        <v>454</v>
+        <v>471</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>455</v>
+        <v>472</v>
       </c>
     </row>
     <row r="173">
       <c r="B173" s="1" t="s">
-        <v>456</v>
+        <v>473</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>457</v>
+        <v>474</v>
       </c>
     </row>
     <row r="174">
       <c r="B174" s="1" t="s">
-        <v>458</v>
+        <v>475</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>459</v>
+        <v>476</v>
       </c>
     </row>
     <row r="175">
       <c r="B175" s="1" t="s">
-        <v>460</v>
+        <v>477</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>461</v>
+        <v>478</v>
       </c>
     </row>
     <row r="176">
       <c r="B176" s="1" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>463</v>
+        <v>480</v>
       </c>
     </row>
     <row r="177">
       <c r="B177" s="1" t="s">
-        <v>464</v>
+        <v>481</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>465</v>
+        <v>482</v>
       </c>
     </row>
     <row r="178">
       <c r="B178" s="1" t="s">
-        <v>466</v>
+        <v>483</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>467</v>
+        <v>484</v>
       </c>
     </row>
     <row r="179">
       <c r="B179" s="1" t="s">
-        <v>468</v>
+        <v>485</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>469</v>
+        <v>486</v>
       </c>
     </row>
     <row r="180">
       <c r="B180" s="1" t="s">
-        <v>470</v>
+        <v>487</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>471</v>
+        <v>488</v>
       </c>
     </row>
     <row r="181">
       <c r="B181" s="1" t="s">
-        <v>472</v>
+        <v>489</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>473</v>
+        <v>490</v>
       </c>
     </row>
     <row r="182">
       <c r="B182" s="1" t="s">
-        <v>474</v>
+        <v>491</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>475</v>
+        <v>492</v>
       </c>
     </row>
     <row r="183">
       <c r="B183" s="1" t="s">
-        <v>476</v>
+        <v>493</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>477</v>
+        <v>494</v>
       </c>
     </row>
     <row r="184">
       <c r="B184" s="1" t="s">
-        <v>478</v>
+        <v>495</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>479</v>
+        <v>496</v>
       </c>
     </row>
     <row r="185">
       <c r="B185" s="1" t="s">
-        <v>480</v>
+        <v>497</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>481</v>
+        <v>498</v>
       </c>
     </row>
     <row r="186">
       <c r="B186" s="1" t="s">
-        <v>482</v>
+        <v>499</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>483</v>
+        <v>500</v>
       </c>
     </row>
     <row r="187">
       <c r="B187" s="1" t="s">
-        <v>484</v>
+        <v>501</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>485</v>
+        <v>502</v>
       </c>
     </row>
     <row r="188">
       <c r="B188" s="1" t="s">
-        <v>486</v>
+        <v>503</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>487</v>
+        <v>504</v>
       </c>
     </row>
     <row r="189">
       <c r="B189" s="1" t="s">
-        <v>488</v>
+        <v>505</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>489</v>
+        <v>506</v>
       </c>
     </row>
     <row r="190">
       <c r="B190" s="1" t="s">
-        <v>490</v>
+        <v>507</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>491</v>
+        <v>508</v>
       </c>
     </row>
     <row r="191">
       <c r="B191" s="1" t="s">
-        <v>492</v>
+        <v>509</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>493</v>
+        <v>510</v>
       </c>
     </row>
     <row r="192">
       <c r="B192" s="1" t="s">
-        <v>494</v>
+        <v>511</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>495</v>
+        <v>512</v>
       </c>
     </row>
     <row r="193">
       <c r="B193" s="1" t="s">
-        <v>496</v>
+        <v>513</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>497</v>
+        <v>514</v>
       </c>
     </row>
     <row r="194">
       <c r="B194" s="1" t="s">
-        <v>498</v>
+        <v>515</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>499</v>
+        <v>516</v>
       </c>
     </row>
     <row r="195">
       <c r="B195" s="1" t="s">
-        <v>500</v>
+        <v>517</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>501</v>
+        <v>518</v>
       </c>
     </row>
     <row r="196">
       <c r="B196" s="1" t="s">
-        <v>502</v>
+        <v>519</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>503</v>
+        <v>520</v>
       </c>
     </row>
     <row r="197">
       <c r="B197" s="1" t="s">
-        <v>504</v>
+        <v>521</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>505</v>
+        <v>522</v>
       </c>
     </row>
     <row r="198">
       <c r="B198" s="1" t="s">
-        <v>506</v>
+        <v>523</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>507</v>
+        <v>524</v>
       </c>
     </row>
     <row r="199">
       <c r="B199" s="1" t="s">
-        <v>508</v>
+        <v>525</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>509</v>
+        <v>526</v>
       </c>
     </row>
     <row r="200">
       <c r="B200" s="1" t="s">
-        <v>510</v>
+        <v>527</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>511</v>
+        <v>528</v>
       </c>
     </row>
     <row r="201">
       <c r="B201" s="1" t="s">
-        <v>512</v>
+        <v>529</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>489</v>
+        <v>506</v>
       </c>
     </row>
     <row r="202">
       <c r="B202" s="1" t="s">
-        <v>513</v>
+        <v>530</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>514</v>
+        <v>531</v>
       </c>
     </row>
     <row r="203">
       <c r="B203" s="1" t="s">
-        <v>515</v>
+        <v>532</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>516</v>
+        <v>533</v>
       </c>
     </row>
     <row r="204">
       <c r="B204" s="1" t="s">
-        <v>517</v>
+        <v>534</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>518</v>
+        <v>535</v>
       </c>
     </row>
     <row r="205">
       <c r="B205" s="1" t="s">
-        <v>519</v>
+        <v>536</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>520</v>
+        <v>537</v>
       </c>
     </row>
     <row r="206">
       <c r="B206" s="1" t="s">
-        <v>521</v>
+        <v>538</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>522</v>
+        <v>539</v>
       </c>
     </row>
     <row r="207">
       <c r="B207" s="1" t="s">
-        <v>523</v>
+        <v>540</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>524</v>
+        <v>541</v>
       </c>
     </row>
     <row r="208">
       <c r="B208" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="C208" s="8"/>
+        <v>542</v>
+      </c>
+      <c r="C208" s="7"/>
       <c r="D208" s="1" t="s">
-        <v>526</v>
+        <v>543</v>
       </c>
     </row>
     <row r="209">
       <c r="B209" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="D209" s="8" t="s">
-        <v>528</v>
+        <v>544</v>
+      </c>
+      <c r="D209" s="7" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="210">
       <c r="B210" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="D210" s="8" t="s">
-        <v>530</v>
+        <v>546</v>
+      </c>
+      <c r="D210" s="7" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="211">
       <c r="B211" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="D211" s="8" t="s">
-        <v>532</v>
+        <v>548</v>
+      </c>
+      <c r="D211" s="7" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="212">
       <c r="B212" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="D212" s="8" t="s">
-        <v>534</v>
+        <v>550</v>
+      </c>
+      <c r="D212" s="7" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="213">
       <c r="B213" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="D213" s="8" t="s">
-        <v>536</v>
+        <v>552</v>
+      </c>
+      <c r="D213" s="7" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="214">
       <c r="B214" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="D214" s="8" t="s">
-        <v>538</v>
+        <v>554</v>
+      </c>
+      <c r="D214" s="7" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="215">
       <c r="B215" s="1" t="s">
-        <v>539</v>
+        <v>556</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>540</v>
+        <v>557</v>
       </c>
     </row>
     <row r="216">
       <c r="B216" s="1" t="s">
-        <v>541</v>
+        <v>558</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>379</v>
+        <v>397</v>
       </c>
     </row>
     <row r="217">
       <c r="B217" s="1" t="s">
-        <v>542</v>
+        <v>559</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>543</v>
+        <v>560</v>
       </c>
     </row>
     <row r="218">
       <c r="B218" s="1" t="s">
-        <v>544</v>
+        <v>561</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>545</v>
+        <v>562</v>
       </c>
     </row>
     <row r="219">
       <c r="B219" s="1" t="s">
-        <v>546</v>
+        <v>563</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>547</v>
+        <v>564</v>
       </c>
     </row>
     <row r="220">
       <c r="B220" s="1" t="s">
-        <v>548</v>
+        <v>565</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>549</v>
+        <v>566</v>
       </c>
     </row>
     <row r="221">
       <c r="B221" s="1" t="s">
-        <v>550</v>
+        <v>567</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>551</v>
+        <v>568</v>
       </c>
     </row>
     <row r="222">
       <c r="B222" s="1" t="s">
-        <v>552</v>
+        <v>569</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>553</v>
+        <v>570</v>
       </c>
     </row>
     <row r="223">
       <c r="B223" s="1" t="s">
-        <v>554</v>
+        <v>571</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>555</v>
+        <v>572</v>
       </c>
     </row>
     <row r="224">
       <c r="B224" s="1" t="s">
-        <v>556</v>
+        <v>573</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>557</v>
+        <v>574</v>
       </c>
     </row>
     <row r="225">
       <c r="B225" s="1" t="s">
-        <v>558</v>
+        <v>575</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>559</v>
+        <v>576</v>
       </c>
     </row>
     <row r="226">
       <c r="B226" s="1" t="s">
-        <v>560</v>
+        <v>577</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>561</v>
+        <v>578</v>
       </c>
     </row>
     <row r="227">
       <c r="B227" s="1" t="s">
-        <v>562</v>
+        <v>579</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>563</v>
+        <v>580</v>
       </c>
     </row>
     <row r="228">
       <c r="B228" s="1" t="s">
-        <v>564</v>
+        <v>581</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>565</v>
+        <v>582</v>
       </c>
     </row>
     <row r="229">
       <c r="B229" s="1" t="s">
-        <v>566</v>
+        <v>583</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>567</v>
+        <v>584</v>
       </c>
     </row>
     <row r="230">
       <c r="B230" s="1" t="s">
-        <v>568</v>
+        <v>585</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>569</v>
+        <v>586</v>
       </c>
     </row>
     <row r="231">
       <c r="B231" s="1" t="s">
-        <v>570</v>
+        <v>587</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>571</v>
+        <v>588</v>
       </c>
     </row>
     <row r="232">
       <c r="B232" s="1" t="s">
-        <v>572</v>
+        <v>589</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>573</v>
+        <v>590</v>
       </c>
     </row>
     <row r="233">
       <c r="B233" s="1" t="s">
-        <v>574</v>
+        <v>591</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>575</v>
+        <v>592</v>
       </c>
     </row>
     <row r="234">
       <c r="B234" s="1" t="s">
-        <v>576</v>
+        <v>593</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>577</v>
+        <v>594</v>
       </c>
     </row>
     <row r="235">
       <c r="B235" s="1" t="s">
-        <v>578</v>
+        <v>595</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>579</v>
+        <v>596</v>
       </c>
     </row>
     <row r="236">
       <c r="B236" s="1" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>581</v>
+        <v>598</v>
       </c>
     </row>
     <row r="237">
       <c r="B237" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="D237" s="8" t="s">
-        <v>583</v>
+        <v>599</v>
+      </c>
+      <c r="D237" s="7" t="s">
+        <v>600</v>
       </c>
     </row>
     <row r="238">
       <c r="B238" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="D238" s="8" t="s">
-        <v>585</v>
+        <v>601</v>
+      </c>
+      <c r="D238" s="7" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="239">
       <c r="B239" s="1" t="s">
-        <v>586</v>
+        <v>603</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>587</v>
+        <v>604</v>
       </c>
     </row>
     <row r="240">
       <c r="B240" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="D240" s="8" t="s">
-        <v>194</v>
+        <v>605</v>
+      </c>
+      <c r="D240" s="7" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="241">
       <c r="B241" s="1" t="s">
-        <v>589</v>
+        <v>606</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>590</v>
+        <v>607</v>
       </c>
     </row>
     <row r="242">
       <c r="B242" s="1" t="s">
-        <v>591</v>
+        <v>608</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>592</v>
+        <v>609</v>
       </c>
     </row>
     <row r="243">
       <c r="B243" s="1" t="s">
-        <v>593</v>
+        <v>610</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>594</v>
+        <v>611</v>
       </c>
     </row>
     <row r="244">
       <c r="B244" s="1" t="s">
-        <v>595</v>
+        <v>612</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>596</v>
+        <v>613</v>
       </c>
     </row>
     <row r="245">
       <c r="B245" s="1" t="s">
-        <v>597</v>
+        <v>614</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>598</v>
+        <v>615</v>
       </c>
     </row>
     <row r="246">
       <c r="B246" s="1" t="s">
-        <v>599</v>
+        <v>616</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>600</v>
+        <v>617</v>
       </c>
     </row>
     <row r="247">
       <c r="B247" s="1" t="s">
-        <v>601</v>
+        <v>618</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>602</v>
+        <v>619</v>
       </c>
     </row>
     <row r="248">
       <c r="B248" s="1" t="s">
-        <v>603</v>
+        <v>620</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>604</v>
+        <v>621</v>
       </c>
     </row>
     <row r="249">
       <c r="B249" s="1" t="s">
-        <v>605</v>
+        <v>622</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>606</v>
+        <v>623</v>
       </c>
     </row>
     <row r="250">
       <c r="B250" s="1" t="s">
-        <v>607</v>
+        <v>624</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>608</v>
+        <v>625</v>
       </c>
     </row>
     <row r="251">
       <c r="B251" s="1" t="s">
-        <v>609</v>
+        <v>626</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>610</v>
+        <v>627</v>
       </c>
     </row>
     <row r="252">
       <c r="B252" s="1" t="s">
-        <v>611</v>
+        <v>628</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>612</v>
+        <v>629</v>
       </c>
     </row>
     <row r="253">
       <c r="B253" s="1" t="s">
-        <v>613</v>
+        <v>630</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>614</v>
+        <v>631</v>
       </c>
     </row>
     <row r="254">
       <c r="B254" s="1" t="s">
-        <v>615</v>
+        <v>632</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>616</v>
+        <v>633</v>
       </c>
     </row>
     <row r="255">
       <c r="B255" s="1" t="s">
-        <v>617</v>
+        <v>634</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>618</v>
+        <v>635</v>
       </c>
     </row>
     <row r="256">
       <c r="B256" s="1" t="s">
-        <v>619</v>
+        <v>636</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>620</v>
+        <v>637</v>
       </c>
     </row>
     <row r="257">
       <c r="B257" s="1" t="s">
-        <v>621</v>
+        <v>638</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>622</v>
+        <v>639</v>
       </c>
     </row>
     <row r="258">
       <c r="B258" s="1" t="s">
-        <v>623</v>
+        <v>640</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>624</v>
+        <v>641</v>
       </c>
     </row>
     <row r="259">
       <c r="B259" s="1" t="s">
-        <v>625</v>
+        <v>642</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>626</v>
+        <v>643</v>
       </c>
     </row>
     <row r="260">
       <c r="B260" s="1" t="s">
-        <v>627</v>
+        <v>644</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>628</v>
+        <v>645</v>
       </c>
     </row>
     <row r="261">
       <c r="B261" s="1" t="s">
-        <v>629</v>
+        <v>646</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>630</v>
+        <v>647</v>
       </c>
     </row>
     <row r="262">
       <c r="B262" s="1" t="s">
-        <v>631</v>
+        <v>648</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>632</v>
+        <v>649</v>
       </c>
     </row>
     <row r="263">
       <c r="B263" s="1" t="s">
-        <v>633</v>
+        <v>650</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>634</v>
+        <v>651</v>
       </c>
     </row>
     <row r="264">
       <c r="B264" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="D264" s="8" t="s">
-        <v>636</v>
+        <v>652</v>
+      </c>
+      <c r="D264" s="7" t="s">
+        <v>653</v>
       </c>
     </row>
     <row r="265">
       <c r="B265" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="D265" s="8" t="s">
-        <v>638</v>
+        <v>654</v>
+      </c>
+      <c r="D265" s="7" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="266">
       <c r="B266" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="D266" s="8" t="s">
-        <v>640</v>
+        <v>656</v>
+      </c>
+      <c r="D266" s="7" t="s">
+        <v>657</v>
       </c>
     </row>
     <row r="267">
       <c r="B267" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="D267" s="8" t="s">
-        <v>642</v>
+        <v>658</v>
+      </c>
+      <c r="D267" s="7" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="268">
       <c r="B268" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="D268" s="8" t="s">
-        <v>644</v>
+        <v>660</v>
+      </c>
+      <c r="D268" s="7" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="269">
       <c r="B269" s="1" t="s">
-        <v>645</v>
+        <v>662</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>646</v>
+        <v>663</v>
       </c>
     </row>
     <row r="270">
       <c r="B270" s="1" t="s">
-        <v>647</v>
+        <v>664</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>648</v>
+        <v>665</v>
       </c>
     </row>
     <row r="271">
       <c r="B271" s="1" t="s">
-        <v>649</v>
+        <v>666</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>650</v>
+        <v>667</v>
       </c>
     </row>
     <row r="272">
       <c r="B272" s="1" t="s">
-        <v>651</v>
+        <v>668</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>652</v>
+        <v>669</v>
       </c>
     </row>
     <row r="273">
       <c r="B273" s="1" t="s">
-        <v>653</v>
+        <v>670</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>341</v>
+        <v>359</v>
       </c>
     </row>
     <row r="274">
       <c r="B274" s="1" t="s">
-        <v>654</v>
+        <v>671</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>655</v>
+        <v>672</v>
       </c>
     </row>
     <row r="275">
       <c r="B275" s="1" t="s">
-        <v>656</v>
+        <v>673</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>657</v>
+        <v>674</v>
       </c>
     </row>
     <row r="276">
       <c r="B276" s="1" t="s">
-        <v>658</v>
+        <v>675</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>659</v>
+        <v>676</v>
       </c>
     </row>
     <row r="277">
       <c r="B277" s="1" t="s">
-        <v>660</v>
+        <v>677</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>661</v>
+        <v>678</v>
       </c>
     </row>
     <row r="278">
       <c r="B278" s="1" t="s">
-        <v>660</v>
+        <v>677</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>662</v>
+        <v>679</v>
       </c>
     </row>
     <row r="279">
       <c r="B279" s="1" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>664</v>
+        <v>681</v>
       </c>
     </row>
     <row r="280">
       <c r="B280" s="1" t="s">
-        <v>665</v>
+        <v>682</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>666</v>
+        <v>683</v>
       </c>
     </row>
     <row r="281">
       <c r="B281" s="1" t="s">
-        <v>667</v>
+        <v>684</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>668</v>
+        <v>685</v>
       </c>
     </row>
     <row r="282">
       <c r="B282" s="1" t="s">
-        <v>669</v>
+        <v>686</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>670</v>
+        <v>687</v>
       </c>
     </row>
     <row r="283">
       <c r="B283" s="1" t="s">
-        <v>671</v>
+        <v>688</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>672</v>
+        <v>689</v>
       </c>
     </row>
     <row r="284">
       <c r="B284" s="1" t="s">
-        <v>673</v>
+        <v>690</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>674</v>
+        <v>691</v>
       </c>
     </row>
     <row r="285">
       <c r="B285" s="1" t="s">
-        <v>675</v>
+        <v>692</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>676</v>
+        <v>693</v>
       </c>
     </row>
     <row r="286">
       <c r="B286" s="1" t="s">
-        <v>677</v>
+        <v>694</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>678</v>
+        <v>695</v>
       </c>
     </row>
     <row r="287">
       <c r="B287" s="1" t="s">
-        <v>679</v>
+        <v>696</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>680</v>
+        <v>697</v>
       </c>
     </row>
     <row r="288">
       <c r="B288" s="1" t="s">
-        <v>681</v>
+        <v>698</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>682</v>
+        <v>699</v>
       </c>
     </row>
     <row r="289">
       <c r="B289" s="1" t="s">
-        <v>683</v>
+        <v>700</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>684</v>
+        <v>701</v>
       </c>
     </row>
     <row r="290">
       <c r="B290" s="1" t="s">
-        <v>685</v>
+        <v>702</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>686</v>
+        <v>703</v>
       </c>
     </row>
     <row r="291">
       <c r="B291" s="1" t="s">
-        <v>687</v>
+        <v>704</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>688</v>
+        <v>705</v>
       </c>
     </row>
     <row r="292">
       <c r="B292" s="1" t="s">
-        <v>689</v>
+        <v>706</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>690</v>
+        <v>707</v>
       </c>
     </row>
     <row r="293">
       <c r="B293" s="1" t="s">
-        <v>691</v>
+        <v>708</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>692</v>
+        <v>709</v>
       </c>
     </row>
     <row r="294">
       <c r="B294" s="1" t="s">
-        <v>693</v>
+        <v>710</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>694</v>
+        <v>711</v>
       </c>
     </row>
     <row r="295">
       <c r="B295" s="1" t="s">
-        <v>695</v>
+        <v>712</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>696</v>
+        <v>713</v>
       </c>
     </row>
     <row r="296">
       <c r="B296" s="1" t="s">
-        <v>697</v>
+        <v>714</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>698</v>
+        <v>715</v>
       </c>
     </row>
     <row r="297">
       <c r="B297" s="1" t="s">
-        <v>699</v>
+        <v>716</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>700</v>
+        <v>717</v>
       </c>
     </row>
     <row r="298">
       <c r="B298" s="1" t="s">
-        <v>701</v>
+        <v>718</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>702</v>
+        <v>719</v>
       </c>
     </row>
     <row r="299">
       <c r="B299" s="1" t="s">
-        <v>703</v>
+        <v>720</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>704</v>
+        <v>721</v>
       </c>
     </row>
     <row r="300">
       <c r="B300" s="1" t="s">
-        <v>705</v>
+        <v>722</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>706</v>
+        <v>723</v>
       </c>
     </row>
     <row r="301">
       <c r="B301" s="1" t="s">
-        <v>707</v>
+        <v>724</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>708</v>
+        <v>725</v>
       </c>
     </row>
     <row r="302">
       <c r="B302" s="1" t="s">
-        <v>709</v>
+        <v>726</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>710</v>
+        <v>727</v>
       </c>
     </row>
     <row r="303">
       <c r="B303" s="1" t="s">
-        <v>711</v>
+        <v>728</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>712</v>
+        <v>729</v>
       </c>
     </row>
     <row r="304">
       <c r="B304" s="1" t="s">
-        <v>713</v>
+        <v>730</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>714</v>
+        <v>731</v>
       </c>
     </row>
     <row r="305">
       <c r="B305" s="1" t="s">
-        <v>715</v>
+        <v>732</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>716</v>
-      </c>
-      <c r="D305" s="8" t="s">
-        <v>717</v>
+        <v>733</v>
+      </c>
+      <c r="D305" s="7" t="s">
+        <v>734</v>
       </c>
     </row>
     <row r="306">
       <c r="B306" s="1" t="s">
-        <v>718</v>
-      </c>
-      <c r="D306" s="8" t="s">
-        <v>719</v>
+        <v>735</v>
+      </c>
+      <c r="D306" s="7" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="307">
       <c r="B307" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="D307" s="8" t="s">
-        <v>721</v>
+        <v>737</v>
+      </c>
+      <c r="D307" s="7" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="308">
       <c r="B308" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="D308" s="8" t="s">
-        <v>723</v>
+        <v>739</v>
+      </c>
+      <c r="D308" s="7" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="309">
       <c r="B309" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="D309" s="8" t="s">
-        <v>725</v>
+        <v>741</v>
+      </c>
+      <c r="D309" s="7" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="310">
       <c r="B310" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="D310" s="8" t="s">
-        <v>727</v>
+        <v>743</v>
+      </c>
+      <c r="D310" s="7" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="311">
       <c r="B311" s="1" t="s">
-        <v>728</v>
-      </c>
-      <c r="D311" s="8" t="s">
-        <v>729</v>
+        <v>745</v>
+      </c>
+      <c r="D311" s="7" t="s">
+        <v>746</v>
       </c>
     </row>
     <row r="312">
       <c r="B312" s="1" t="s">
-        <v>730</v>
-      </c>
-      <c r="D312" s="8" t="s">
-        <v>250</v>
+        <v>747</v>
+      </c>
+      <c r="D312" s="7" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="313">
       <c r="B313" s="1" t="s">
-        <v>731</v>
-      </c>
-      <c r="D313" s="8" t="s">
-        <v>252</v>
+        <v>748</v>
+      </c>
+      <c r="D313" s="7" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="314">
       <c r="B314" s="1" t="s">
-        <v>732</v>
-      </c>
-      <c r="D314" s="8" t="s">
-        <v>254</v>
+        <v>749</v>
+      </c>
+      <c r="D314" s="7" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="315">
       <c r="B315" s="1" t="s">
-        <v>733</v>
-      </c>
-      <c r="D315" s="8" t="s">
-        <v>734</v>
+        <v>750</v>
+      </c>
+      <c r="D315" s="7" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="316">
       <c r="B316" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="D316" s="8" t="s">
-        <v>736</v>
+        <v>752</v>
+      </c>
+      <c r="D316" s="7" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="317">
       <c r="B317" s="1" t="s">
-        <v>737</v>
-      </c>
-      <c r="D317" s="8" t="s">
-        <v>738</v>
+        <v>754</v>
+      </c>
+      <c r="D317" s="7" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="318">
       <c r="B318" s="1" t="s">
-        <v>739</v>
+        <v>756</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>740</v>
+        <v>757</v>
       </c>
     </row>
     <row r="319">
       <c r="B319" s="1" t="s">
-        <v>741</v>
+        <v>758</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>742</v>
+        <v>759</v>
       </c>
     </row>
     <row r="320">
       <c r="B320" s="1" t="s">
-        <v>743</v>
+        <v>760</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>744</v>
+        <v>761</v>
       </c>
     </row>
     <row r="321">
       <c r="B321" s="1" t="s">
-        <v>745</v>
+        <v>762</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>746</v>
+        <v>763</v>
       </c>
     </row>
     <row r="322">
       <c r="B322" s="1" t="s">
-        <v>747</v>
+        <v>764</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>748</v>
+        <v>765</v>
       </c>
     </row>
     <row r="323">
       <c r="B323" s="1" t="s">
-        <v>749</v>
+        <v>766</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>750</v>
+        <v>767</v>
       </c>
     </row>
     <row r="324">
       <c r="B324" s="1" t="s">
-        <v>751</v>
+        <v>768</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>752</v>
+        <v>769</v>
       </c>
     </row>
     <row r="325">
       <c r="B325" s="1" t="s">
-        <v>753</v>
+        <v>770</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>754</v>
+        <v>771</v>
       </c>
     </row>
     <row r="326">
       <c r="B326" s="1" t="s">
-        <v>755</v>
+        <v>772</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>756</v>
+        <v>773</v>
       </c>
     </row>
     <row r="327">
       <c r="B327" s="1" t="s">
-        <v>757</v>
+        <v>774</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>758</v>
+        <v>775</v>
       </c>
     </row>
     <row r="328">
       <c r="B328" s="1" t="s">
-        <v>759</v>
+        <v>776</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>760</v>
+        <v>777</v>
       </c>
     </row>
     <row r="329">
       <c r="B329" s="1" t="s">
-        <v>761</v>
+        <v>778</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>762</v>
+        <v>779</v>
       </c>
     </row>
     <row r="330">
       <c r="B330" s="1" t="s">
-        <v>763</v>
+        <v>780</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>764</v>
+        <v>781</v>
       </c>
     </row>
     <row r="331">
       <c r="B331" s="1" t="s">
-        <v>765</v>
+        <v>782</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>766</v>
+        <v>783</v>
       </c>
     </row>
     <row r="332">
       <c r="B332" s="1" t="s">
-        <v>767</v>
+        <v>784</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>768</v>
+        <v>785</v>
       </c>
     </row>
     <row r="333">
       <c r="B333" s="1" t="s">
-        <v>769</v>
+        <v>786</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>770</v>
+        <v>787</v>
       </c>
     </row>
     <row r="334">
       <c r="B334" s="1" t="s">
-        <v>771</v>
+        <v>788</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>772</v>
+        <v>789</v>
       </c>
     </row>
     <row r="335">
       <c r="B335" s="1" t="s">
-        <v>773</v>
+        <v>790</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>774</v>
+        <v>791</v>
       </c>
     </row>
     <row r="336">
       <c r="B336" s="1" t="s">
-        <v>775</v>
-      </c>
-      <c r="D336" s="8" t="s">
-        <v>776</v>
+        <v>792</v>
+      </c>
+      <c r="D336" s="7" t="s">
+        <v>793</v>
       </c>
     </row>
     <row r="337">
       <c r="B337" s="1" t="s">
-        <v>777</v>
-      </c>
-      <c r="D337" s="8" t="s">
-        <v>778</v>
+        <v>794</v>
+      </c>
+      <c r="D337" s="7" t="s">
+        <v>795</v>
       </c>
     </row>
     <row r="338">
       <c r="B338" s="1" t="s">
-        <v>779</v>
-      </c>
-      <c r="D338" s="8" t="s">
-        <v>780</v>
+        <v>796</v>
+      </c>
+      <c r="D338" s="7" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="339">
       <c r="B339" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="D339" s="8" t="s">
-        <v>782</v>
+        <v>798</v>
+      </c>
+      <c r="D339" s="7" t="s">
+        <v>799</v>
       </c>
     </row>
     <row r="340">
       <c r="B340" s="1" t="s">
-        <v>783</v>
+        <v>800</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>784</v>
+        <v>801</v>
       </c>
     </row>
     <row r="341">
       <c r="B341" s="1" t="s">
-        <v>785</v>
+        <v>802</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>786</v>
+        <v>803</v>
       </c>
     </row>
     <row r="342">
       <c r="B342" s="1" t="s">
-        <v>787</v>
+        <v>804</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>788</v>
+        <v>805</v>
       </c>
     </row>
     <row r="343">
       <c r="B343" s="1" t="s">
-        <v>789</v>
+        <v>806</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>790</v>
+        <v>807</v>
       </c>
     </row>
     <row r="344">
       <c r="B344" s="1" t="s">
-        <v>791</v>
+        <v>808</v>
       </c>
       <c r="D344" s="1" t="s">
-        <v>792</v>
+        <v>809</v>
       </c>
     </row>
     <row r="345">
       <c r="B345" s="1" t="s">
-        <v>793</v>
+        <v>810</v>
       </c>
       <c r="D345" s="1" t="s">
-        <v>794</v>
+        <v>811</v>
       </c>
     </row>
     <row r="346">
       <c r="B346" s="1" t="s">
-        <v>795</v>
+        <v>812</v>
       </c>
       <c r="D346" s="1" t="s">
-        <v>796</v>
+        <v>813</v>
       </c>
     </row>
     <row r="347">
       <c r="B347" s="1" t="s">
-        <v>797</v>
+        <v>814</v>
       </c>
       <c r="D347" s="1" t="s">
-        <v>798</v>
+        <v>815</v>
       </c>
     </row>
     <row r="348">
       <c r="B348" s="1" t="s">
-        <v>799</v>
+        <v>816</v>
       </c>
       <c r="D348" s="1" t="s">
-        <v>800</v>
+        <v>817</v>
       </c>
     </row>
     <row r="349">
       <c r="B349" s="1" t="s">
-        <v>801</v>
+        <v>818</v>
       </c>
       <c r="D349" s="1" t="s">
-        <v>802</v>
+        <v>819</v>
       </c>
     </row>
     <row r="350">
       <c r="B350" s="1" t="s">
-        <v>803</v>
+        <v>820</v>
       </c>
       <c r="D350" s="1" t="s">
-        <v>804</v>
+        <v>821</v>
       </c>
     </row>
     <row r="351">
       <c r="B351" s="1" t="s">
-        <v>805</v>
+        <v>822</v>
       </c>
       <c r="D351" s="1" t="s">
-        <v>806</v>
+        <v>823</v>
       </c>
     </row>
     <row r="352">
       <c r="B352" s="1" t="s">
-        <v>807</v>
-      </c>
-      <c r="D352" s="8" t="s">
-        <v>808</v>
+        <v>824</v>
+      </c>
+      <c r="D352" s="7" t="s">
+        <v>825</v>
       </c>
     </row>
     <row r="353">
       <c r="B353" s="1" t="s">
-        <v>809</v>
-      </c>
-      <c r="D353" s="8" t="s">
-        <v>561</v>
+        <v>826</v>
+      </c>
+      <c r="D353" s="7" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="354">
       <c r="B354" s="1" t="s">
-        <v>810</v>
-      </c>
-      <c r="D354" s="8" t="s">
-        <v>563</v>
+        <v>827</v>
+      </c>
+      <c r="D354" s="7" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="355">
       <c r="B355" s="1" t="s">
-        <v>811</v>
-      </c>
-      <c r="D355" s="8" t="s">
-        <v>565</v>
+        <v>828</v>
+      </c>
+      <c r="D355" s="7" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="356">
       <c r="B356" s="1" t="s">
-        <v>812</v>
-      </c>
-      <c r="D356" s="8" t="s">
-        <v>813</v>
+        <v>829</v>
+      </c>
+      <c r="D356" s="7" t="s">
+        <v>830</v>
       </c>
     </row>
     <row r="357">
       <c r="B357" s="1" t="s">
-        <v>814</v>
-      </c>
-      <c r="D357" s="8" t="s">
-        <v>815</v>
+        <v>831</v>
+      </c>
+      <c r="D357" s="7" t="s">
+        <v>832</v>
       </c>
     </row>
     <row r="358">
       <c r="B358" s="1" t="s">
-        <v>816</v>
+        <v>833</v>
       </c>
       <c r="D358" s="1" t="s">
-        <v>817</v>
+        <v>834</v>
       </c>
     </row>
     <row r="359">
       <c r="B359" s="1" t="s">
-        <v>818</v>
+        <v>835</v>
       </c>
       <c r="D359" s="1" t="s">
-        <v>819</v>
+        <v>836</v>
       </c>
     </row>
     <row r="360">
       <c r="B360" s="1" t="s">
-        <v>820</v>
+        <v>837</v>
       </c>
       <c r="D360" s="1" t="s">
-        <v>821</v>
+        <v>838</v>
       </c>
     </row>
     <row r="361">
       <c r="B361" s="1" t="s">
-        <v>822</v>
+        <v>839</v>
       </c>
       <c r="D361" s="1" t="s">
-        <v>823</v>
+        <v>840</v>
       </c>
     </row>
     <row r="362">
       <c r="B362" s="1" t="s">
-        <v>824</v>
+        <v>841</v>
       </c>
       <c r="D362" s="1" t="s">
-        <v>825</v>
+        <v>842</v>
       </c>
     </row>
     <row r="363">
       <c r="B363" s="1" t="s">
-        <v>826</v>
+        <v>843</v>
       </c>
       <c r="D363" s="1" t="s">
-        <v>827</v>
+        <v>844</v>
       </c>
     </row>
     <row r="364">
       <c r="B364" s="1" t="s">
-        <v>828</v>
+        <v>845</v>
       </c>
       <c r="D364" s="1" t="s">
-        <v>829</v>
+        <v>846</v>
       </c>
     </row>
     <row r="365">
       <c r="B365" s="1" t="s">
-        <v>830</v>
+        <v>847</v>
       </c>
       <c r="D365" s="1" t="s">
-        <v>831</v>
+        <v>848</v>
       </c>
     </row>
     <row r="366">
       <c r="B366" s="1" t="s">
-        <v>832</v>
+        <v>849</v>
       </c>
     </row>
     <row r="367">
       <c r="B367" s="1" t="s">
-        <v>833</v>
+        <v>850</v>
       </c>
     </row>
     <row r="368">
       <c r="B368" s="1" t="s">
-        <v>834</v>
+        <v>851</v>
       </c>
     </row>
     <row r="369">
       <c r="B369" s="1" t="s">
-        <v>835</v>
+        <v>852</v>
       </c>
     </row>
     <row r="370">
       <c r="B370" s="1" t="s">
-        <v>836</v>
+        <v>853</v>
       </c>
     </row>
     <row r="371">
       <c r="B371" s="1" t="s">
-        <v>837</v>
+        <v>854</v>
       </c>
     </row>
     <row r="372">
       <c r="B372" s="1" t="s">
-        <v>838</v>
+        <v>855</v>
       </c>
     </row>
     <row r="373">
       <c r="B373" s="1" t="s">
-        <v>839</v>
+        <v>856</v>
       </c>
     </row>
     <row r="374">
       <c r="B374" s="1" t="s">
-        <v>840</v>
+        <v>857</v>
       </c>
     </row>
     <row r="375">
       <c r="B375" s="1" t="s">
-        <v>841</v>
+        <v>858</v>
       </c>
     </row>
     <row r="376">
       <c r="B376" s="1" t="s">
-        <v>842</v>
+        <v>859</v>
       </c>
     </row>
     <row r="377">
       <c r="B377" s="1" t="s">
-        <v>843</v>
+        <v>860</v>
       </c>
     </row>
     <row r="378">
       <c r="B378" s="1" t="s">
-        <v>844</v>
+        <v>861</v>
       </c>
     </row>
     <row r="379">
       <c r="B379" s="1" t="s">
-        <v>845</v>
+        <v>862</v>
       </c>
     </row>
     <row r="380">
       <c r="B380" s="1" t="s">
-        <v>846</v>
+        <v>863</v>
       </c>
     </row>
     <row r="381">
       <c r="B381" s="1" t="s">
-        <v>847</v>
+        <v>864</v>
       </c>
     </row>
     <row r="382">
       <c r="B382" s="1" t="s">
-        <v>848</v>
+        <v>865</v>
       </c>
     </row>
     <row r="383">
       <c r="B383" s="1" t="s">
-        <v>849</v>
+        <v>866</v>
       </c>
     </row>
     <row r="384">
       <c r="B384" s="1" t="s">
-        <v>850</v>
+        <v>867</v>
       </c>
     </row>
     <row r="385">
       <c r="B385" s="1" t="s">
-        <v>851</v>
+        <v>868</v>
       </c>
     </row>
     <row r="386">
       <c r="B386" s="1" t="s">
-        <v>852</v>
+        <v>869</v>
       </c>
     </row>
     <row r="387">
       <c r="B387" s="1" t="s">
-        <v>853</v>
+        <v>870</v>
       </c>
     </row>
     <row r="388">
       <c r="B388" s="1" t="s">
-        <v>854</v>
+        <v>871</v>
       </c>
     </row>
     <row r="389">
       <c r="B389" s="1" t="s">
-        <v>855</v>
+        <v>872</v>
       </c>
     </row>
     <row r="390">
       <c r="B390" s="1" t="s">
-        <v>856</v>
+        <v>873</v>
       </c>
     </row>
     <row r="391">
       <c r="B391" s="1" t="s">
-        <v>857</v>
+        <v>874</v>
       </c>
     </row>
     <row r="392">
       <c r="B392" s="1" t="s">
-        <v>858</v>
+        <v>875</v>
       </c>
     </row>
     <row r="393">
       <c r="B393" s="1" t="s">
-        <v>859</v>
+        <v>876</v>
       </c>
     </row>
     <row r="394">
       <c r="B394" s="1" t="s">
-        <v>860</v>
+        <v>877</v>
       </c>
     </row>
     <row r="395">
       <c r="B395" s="1" t="s">
-        <v>861</v>
+        <v>878</v>
       </c>
     </row>
     <row r="396">
       <c r="B396" s="1" t="s">
-        <v>862</v>
+        <v>879</v>
       </c>
     </row>
     <row r="397">
       <c r="B397" s="1" t="s">
-        <v>863</v>
+        <v>880</v>
       </c>
     </row>
     <row r="398">
       <c r="B398" s="1" t="s">
-        <v>864</v>
+        <v>881</v>
       </c>
     </row>
     <row r="399">
       <c r="B399" s="1" t="s">
-        <v>865</v>
+        <v>882</v>
       </c>
     </row>
     <row r="400">
       <c r="B400" s="1" t="s">
-        <v>866</v>
+        <v>883</v>
       </c>
     </row>
     <row r="401">
       <c r="B401" s="1" t="s">
-        <v>867</v>
+        <v>884</v>
       </c>
     </row>
     <row r="402">
       <c r="B402" s="1" t="s">
-        <v>868</v>
+        <v>885</v>
       </c>
     </row>
     <row r="403">
       <c r="B403" s="1" t="s">
-        <v>869</v>
+        <v>886</v>
       </c>
     </row>
     <row r="404">
       <c r="B404" s="1" t="s">
-        <v>870</v>
+        <v>887</v>
       </c>
     </row>
     <row r="405">
       <c r="B405" s="1" t="s">
-        <v>871</v>
+        <v>888</v>
       </c>
     </row>
     <row r="406">
       <c r="B406" s="1" t="s">
-        <v>872</v>
+        <v>889</v>
       </c>
     </row>
     <row r="407">
       <c r="B407" s="1" t="s">
-        <v>873</v>
+        <v>890</v>
       </c>
     </row>
     <row r="408">
       <c r="B408" s="1" t="s">
-        <v>874</v>
+        <v>891</v>
       </c>
     </row>
     <row r="409">
       <c r="B409" s="1" t="s">
-        <v>875</v>
+        <v>892</v>
       </c>
     </row>
     <row r="410">
       <c r="B410" s="1" t="s">
-        <v>876</v>
+        <v>893</v>
       </c>
     </row>
     <row r="411">
       <c r="B411" s="1" t="s">
-        <v>877</v>
+        <v>894</v>
       </c>
     </row>
     <row r="412">
       <c r="B412" s="1" t="s">
-        <v>878</v>
+        <v>895</v>
       </c>
     </row>
     <row r="413">
       <c r="B413" s="1" t="s">
-        <v>879</v>
+        <v>896</v>
       </c>
     </row>
     <row r="414">
       <c r="B414" s="1" t="s">
-        <v>880</v>
+        <v>897</v>
       </c>
     </row>
     <row r="415">
       <c r="B415" s="1" t="s">
-        <v>881</v>
+        <v>898</v>
       </c>
     </row>
     <row r="416">
       <c r="B416" s="1" t="s">
-        <v>882</v>
+        <v>899</v>
       </c>
     </row>
     <row r="417">
       <c r="B417" s="1" t="s">
-        <v>883</v>
+        <v>900</v>
       </c>
     </row>
     <row r="418">
       <c r="B418" s="1" t="s">
-        <v>884</v>
+        <v>901</v>
       </c>
     </row>
     <row r="419">
       <c r="B419" s="1" t="s">
-        <v>885</v>
+        <v>902</v>
       </c>
     </row>
     <row r="420">
       <c r="B420" s="1" t="s">
-        <v>886</v>
+        <v>903</v>
       </c>
     </row>
     <row r="421">
       <c r="B421" s="1" t="s">
-        <v>887</v>
+        <v>904</v>
       </c>
     </row>
     <row r="422">
       <c r="B422" s="1" t="s">
-        <v>888</v>
+        <v>905</v>
       </c>
     </row>
     <row r="423">
       <c r="B423" s="1" t="s">
-        <v>889</v>
+        <v>906</v>
       </c>
     </row>
     <row r="424">
       <c r="B424" s="1" t="s">
-        <v>890</v>
+        <v>907</v>
       </c>
     </row>
     <row r="425">
       <c r="B425" s="1" t="s">
-        <v>891</v>
+        <v>908</v>
       </c>
     </row>
     <row r="426">
       <c r="B426" s="1" t="s">
-        <v>892</v>
+        <v>909</v>
       </c>
     </row>
     <row r="427">
       <c r="B427" s="1" t="s">
-        <v>893</v>
+        <v>910</v>
       </c>
     </row>
     <row r="428">
       <c r="B428" s="1" t="s">
-        <v>894</v>
+        <v>911</v>
       </c>
     </row>
     <row r="429">
       <c r="B429" s="1" t="s">
-        <v>895</v>
+        <v>912</v>
       </c>
     </row>
     <row r="430">
       <c r="B430" s="1" t="s">
-        <v>896</v>
+        <v>913</v>
       </c>
     </row>
     <row r="431">
       <c r="B431" s="1" t="s">
-        <v>897</v>
+        <v>914</v>
       </c>
     </row>
     <row r="432">
       <c r="B432" s="1" t="s">
-        <v>898</v>
+        <v>915</v>
       </c>
     </row>
     <row r="433">
       <c r="B433" s="1" t="s">
-        <v>899</v>
+        <v>916</v>
       </c>
     </row>
     <row r="434">
       <c r="B434" s="1" t="s">
-        <v>900</v>
+        <v>917</v>
       </c>
     </row>
     <row r="435">
       <c r="B435" s="1" t="s">
-        <v>901</v>
+        <v>918</v>
       </c>
     </row>
     <row r="436">
       <c r="B436" s="1" t="s">
-        <v>902</v>
+        <v>919</v>
       </c>
     </row>
     <row r="437">
       <c r="B437" s="1" t="s">
-        <v>903</v>
+        <v>920</v>
       </c>
     </row>
     <row r="438">
       <c r="B438" s="1" t="s">
-        <v>904</v>
+        <v>921</v>
       </c>
     </row>
     <row r="439">
       <c r="B439" s="1" t="s">
-        <v>905</v>
+        <v>922</v>
       </c>
     </row>
     <row r="440">
       <c r="B440" s="1" t="s">
-        <v>906</v>
+        <v>923</v>
       </c>
     </row>
     <row r="441">
       <c r="B441" s="1" t="s">
-        <v>907</v>
+        <v>924</v>
       </c>
     </row>
     <row r="442">
       <c r="B442" s="1" t="s">
-        <v>908</v>
+        <v>925</v>
       </c>
     </row>
     <row r="443">
       <c r="B443" s="1" t="s">
-        <v>909</v>
+        <v>926</v>
       </c>
     </row>
     <row r="444">
       <c r="B444" s="1" t="s">
-        <v>910</v>
+        <v>927</v>
       </c>
     </row>
     <row r="445">
       <c r="B445" s="1" t="s">
-        <v>911</v>
+        <v>928</v>
       </c>
     </row>
     <row r="446">
       <c r="B446" s="1" t="s">
-        <v>912</v>
+        <v>929</v>
       </c>
     </row>
     <row r="447">
       <c r="B447" s="1" t="s">
-        <v>913</v>
+        <v>930</v>
       </c>
     </row>
     <row r="448">
       <c r="B448" s="1" t="s">
-        <v>914</v>
+        <v>931</v>
       </c>
     </row>
     <row r="449">
       <c r="B449" s="1" t="s">
-        <v>915</v>
+        <v>932</v>
       </c>
     </row>
     <row r="450">
       <c r="B450" s="1" t="s">
-        <v>916</v>
+        <v>933</v>
       </c>
     </row>
     <row r="451">
       <c r="B451" s="1" t="s">
-        <v>917</v>
+        <v>934</v>
       </c>
     </row>
     <row r="452">
       <c r="B452" s="1" t="s">
-        <v>918</v>
+        <v>935</v>
       </c>
     </row>
     <row r="453">
       <c r="B453" s="1" t="s">
-        <v>919</v>
+        <v>936</v>
       </c>
     </row>
     <row r="454">
       <c r="B454" s="1" t="s">
-        <v>920</v>
+        <v>937</v>
       </c>
     </row>
     <row r="455">
       <c r="B455" s="1" t="s">
-        <v>921</v>
+        <v>938</v>
       </c>
     </row>
     <row r="456">
       <c r="B456" s="1" t="s">
-        <v>922</v>
+        <v>939</v>
       </c>
     </row>
     <row r="457">
       <c r="B457" s="1" t="s">
-        <v>923</v>
+        <v>940</v>
       </c>
     </row>
     <row r="458">
       <c r="B458" s="1" t="s">
-        <v>924</v>
+        <v>941</v>
       </c>
     </row>
     <row r="459">
       <c r="B459" s="1" t="s">
-        <v>925</v>
+        <v>942</v>
       </c>
     </row>
     <row r="460">
       <c r="B460" s="1" t="s">
-        <v>926</v>
+        <v>943</v>
       </c>
     </row>
     <row r="461">
       <c r="B461" s="1" t="s">
-        <v>927</v>
+        <v>944</v>
       </c>
     </row>
     <row r="462">
       <c r="B462" s="1" t="s">
-        <v>928</v>
+        <v>945</v>
       </c>
     </row>
     <row r="463">
       <c r="B463" s="1" t="s">
-        <v>929</v>
+        <v>946</v>
       </c>
     </row>
     <row r="464">
       <c r="B464" s="1" t="s">
-        <v>930</v>
+        <v>947</v>
       </c>
     </row>
     <row r="465">
       <c r="B465" s="1" t="s">
-        <v>931</v>
+        <v>948</v>
       </c>
     </row>
     <row r="466">
       <c r="B466" s="1" t="s">
-        <v>932</v>
+        <v>949</v>
       </c>
     </row>
     <row r="467">
       <c r="B467" s="1" t="s">
-        <v>933</v>
+        <v>950</v>
       </c>
     </row>
     <row r="468">
       <c r="B468" s="1" t="s">
-        <v>934</v>
+        <v>951</v>
       </c>
     </row>
     <row r="469">
       <c r="B469" s="1" t="s">
-        <v>935</v>
+        <v>952</v>
       </c>
     </row>
     <row r="470">
       <c r="B470" s="1" t="s">
-        <v>936</v>
+        <v>953</v>
       </c>
     </row>
     <row r="471">
       <c r="B471" s="1" t="s">
-        <v>937</v>
+        <v>954</v>
       </c>
     </row>
     <row r="472">
       <c r="B472" s="1" t="s">
-        <v>938</v>
+        <v>955</v>
       </c>
     </row>
     <row r="473">
       <c r="B473" s="1" t="s">
-        <v>939</v>
+        <v>956</v>
       </c>
     </row>
     <row r="474">
       <c r="B474" s="1" t="s">
-        <v>940</v>
+        <v>957</v>
       </c>
     </row>
     <row r="475">
       <c r="B475" s="1" t="s">
-        <v>941</v>
+        <v>958</v>
       </c>
     </row>
     <row r="476">
       <c r="B476" s="1" t="s">
-        <v>942</v>
+        <v>959</v>
       </c>
     </row>
     <row r="477">
       <c r="B477" s="1" t="s">
-        <v>943</v>
+        <v>960</v>
       </c>
     </row>
     <row r="478">
       <c r="B478" s="1" t="s">
-        <v>944</v>
+        <v>961</v>
       </c>
     </row>
     <row r="479">
       <c r="B479" s="1" t="s">
-        <v>945</v>
+        <v>962</v>
       </c>
     </row>
     <row r="480">
       <c r="B480" s="1" t="s">
-        <v>946</v>
+        <v>963</v>
       </c>
     </row>
     <row r="481">
       <c r="B481" s="1" t="s">
-        <v>947</v>
+        <v>964</v>
       </c>
     </row>
     <row r="482">
       <c r="B482" s="1" t="s">
-        <v>948</v>
+        <v>965</v>
       </c>
     </row>
     <row r="483">
       <c r="B483" s="1" t="s">
-        <v>949</v>
+        <v>966</v>
       </c>
     </row>
     <row r="484">
       <c r="B484" s="1" t="s">
-        <v>950</v>
+        <v>967</v>
       </c>
     </row>
     <row r="485">
       <c r="B485" s="1" t="s">
-        <v>951</v>
+        <v>968</v>
       </c>
     </row>
     <row r="486">
       <c r="B486" s="1" t="s">
-        <v>952</v>
+        <v>969</v>
       </c>
     </row>
     <row r="487">
       <c r="B487" s="1" t="s">
-        <v>953</v>
+        <v>970</v>
       </c>
     </row>
     <row r="488">
       <c r="B488" s="1" t="s">
-        <v>954</v>
+        <v>971</v>
       </c>
     </row>
     <row r="489">
       <c r="B489" s="1" t="s">
-        <v>955</v>
+        <v>972</v>
       </c>
     </row>
     <row r="490">
       <c r="B490" s="1" t="s">
-        <v>956</v>
+        <v>973</v>
       </c>
     </row>
     <row r="491">
       <c r="B491" s="1" t="s">
-        <v>957</v>
+        <v>974</v>
       </c>
     </row>
     <row r="492">
       <c r="B492" s="1" t="s">
-        <v>958</v>
+        <v>975</v>
       </c>
     </row>
     <row r="493">
       <c r="B493" s="1" t="s">
-        <v>959</v>
+        <v>976</v>
       </c>
     </row>
     <row r="494">
       <c r="B494" s="1" t="s">
-        <v>960</v>
+        <v>977</v>
       </c>
     </row>
     <row r="495">
       <c r="B495" s="1" t="s">
-        <v>961</v>
+        <v>978</v>
       </c>
     </row>
     <row r="496">
       <c r="B496" s="1" t="s">
-        <v>962</v>
+        <v>979</v>
       </c>
     </row>
     <row r="497">
       <c r="B497" s="1" t="s">
-        <v>963</v>
+        <v>980</v>
       </c>
     </row>
     <row r="498">
       <c r="B498" s="1" t="s">
-        <v>964</v>
+        <v>981</v>
       </c>
     </row>
     <row r="499">
       <c r="B499" s="1" t="s">
-        <v>965</v>
+        <v>982</v>
       </c>
     </row>
     <row r="500">
       <c r="B500" s="1" t="s">
-        <v>966</v>
+        <v>983</v>
       </c>
     </row>
     <row r="501">
       <c r="B501" s="1" t="s">
-        <v>967</v>
+        <v>984</v>
       </c>
     </row>
     <row r="502">
       <c r="B502" s="1" t="s">
-        <v>968</v>
+        <v>985</v>
       </c>
     </row>
     <row r="503">
       <c r="B503" s="1" t="s">
-        <v>969</v>
+        <v>986</v>
       </c>
     </row>
     <row r="504">
       <c r="B504" s="1" t="s">
-        <v>970</v>
+        <v>987</v>
       </c>
     </row>
     <row r="505">
       <c r="B505" s="1" t="s">
-        <v>971</v>
+        <v>988</v>
       </c>
     </row>
     <row r="506">
       <c r="B506" s="1" t="s">
-        <v>972</v>
+        <v>989</v>
       </c>
     </row>
     <row r="507">
       <c r="B507" s="1" t="s">
-        <v>973</v>
+        <v>990</v>
       </c>
     </row>
     <row r="508">
       <c r="B508" s="1" t="s">
-        <v>974</v>
+        <v>991</v>
       </c>
     </row>
     <row r="509">
       <c r="B509" s="1" t="s">
-        <v>975</v>
+        <v>992</v>
       </c>
     </row>
     <row r="510">
       <c r="B510" s="1" t="s">
-        <v>976</v>
+        <v>993</v>
       </c>
     </row>
     <row r="511">
       <c r="B511" s="1" t="s">
-        <v>977</v>
+        <v>994</v>
       </c>
     </row>
     <row r="512">
       <c r="B512" s="1" t="s">
-        <v>978</v>
+        <v>995</v>
       </c>
     </row>
     <row r="513">
       <c r="B513" s="1" t="s">
-        <v>979</v>
+        <v>996</v>
       </c>
     </row>
     <row r="514">
       <c r="B514" s="1" t="s">
-        <v>980</v>
+        <v>997</v>
       </c>
     </row>
     <row r="515">
       <c r="B515" s="1" t="s">
-        <v>981</v>
+        <v>998</v>
       </c>
     </row>
     <row r="516">
       <c r="B516" s="1" t="s">
-        <v>982</v>
+        <v>999</v>
       </c>
     </row>
     <row r="517">
       <c r="B517" s="1" t="s">
-        <v>983</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="518">
       <c r="B518" s="1" t="s">
-        <v>984</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="519">
       <c r="B519" s="1" t="s">
-        <v>985</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="520">
       <c r="B520" s="1" t="s">
-        <v>986</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="521">
       <c r="B521" s="1" t="s">
-        <v>987</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="522">
       <c r="B522" s="1" t="s">
-        <v>988</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="523">
       <c r="B523" s="1" t="s">
-        <v>989</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="524">
       <c r="B524" s="1" t="s">
-        <v>990</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="525">
       <c r="B525" s="1" t="s">
-        <v>991</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="526">
       <c r="B526" s="1" t="s">
-        <v>992</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="527">
       <c r="B527" s="1" t="s">
-        <v>993</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="528">
       <c r="B528" s="1" t="s">
-        <v>994</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="529">
       <c r="B529" s="1" t="s">
-        <v>995</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="530">
       <c r="B530" s="1" t="s">
-        <v>996</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="531">
       <c r="B531" s="1" t="s">
-        <v>997</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="532">
       <c r="B532" s="1" t="s">
-        <v>998</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="533">
       <c r="B533" s="1" t="s">
-        <v>999</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="534">
       <c r="B534" s="1" t="s">
-        <v>1000</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="535">
       <c r="B535" s="1" t="s">
-        <v>1001</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="536">
       <c r="B536" s="1" t="s">
-        <v>1002</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="537">
       <c r="B537" s="1" t="s">
-        <v>1003</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="538">
       <c r="B538" s="1" t="s">
-        <v>1004</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="539">
       <c r="B539" s="1" t="s">
-        <v>1005</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="540">
       <c r="B540" s="1" t="s">
-        <v>1006</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="541">
       <c r="B541" s="1" t="s">
-        <v>1007</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="542">
       <c r="B542" s="1" t="s">
-        <v>1008</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="543">
       <c r="B543" s="1" t="s">
-        <v>1009</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="544">
       <c r="B544" s="1" t="s">
-        <v>1010</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="545">
       <c r="B545" s="1" t="s">
-        <v>1011</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="546">
       <c r="B546" s="1" t="s">
-        <v>1012</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="547">
       <c r="B547" s="1" t="s">
-        <v>1013</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="548">
       <c r="B548" s="1" t="s">
-        <v>1014</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="549">
       <c r="B549" s="1" t="s">
-        <v>1015</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="550">
       <c r="B550" s="1" t="s">
-        <v>1016</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="551">
       <c r="B551" s="1" t="s">
-        <v>1017</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="552">
       <c r="B552" s="1" t="s">
-        <v>1018</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="553">
       <c r="B553" s="1" t="s">
-        <v>1019</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="554">
       <c r="B554" s="1" t="s">
-        <v>1020</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="555">
       <c r="B555" s="1" t="s">
-        <v>1021</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="556">
       <c r="B556" s="1" t="s">
-        <v>1022</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="557">
       <c r="B557" s="1" t="s">
-        <v>1023</v>
+        <v>1040</v>
       </c>
     </row>
   </sheetData>
